--- a/xlsx/nor_oda_multipartners_tenyear.xlsx
+++ b/xlsx/nor_oda_multipartners_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bistand til multilaterale partnere, 2014-2023. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Bistand til multilaterale partnere, 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -404,7 +404,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -412,12 +412,12 @@
         </is>
       </c>
       <c r="C2">
-        <v>3.3765818275</v>
+        <v>3.99031471261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -425,12 +425,12 @@
         </is>
       </c>
       <c r="C3">
-        <v>7.65818831628</v>
+        <v>8.28114530893</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -438,12 +438,12 @@
         </is>
       </c>
       <c r="C4">
-        <v>1.427019033</v>
+        <v>0.935685116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -451,12 +451,12 @@
         </is>
       </c>
       <c r="C5">
-        <v>3.3944732164</v>
+        <v>2.47081262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -464,12 +464,12 @@
         </is>
       </c>
       <c r="C6">
-        <v>3.99031471261</v>
+        <v>3.59239238332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -477,12 +477,12 @@
         </is>
       </c>
       <c r="C7">
-        <v>8.28114530893</v>
+        <v>8.33448238043</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -490,12 +490,12 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.935685116</v>
+        <v>1.084052857</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -503,12 +503,12 @@
         </is>
       </c>
       <c r="C9">
-        <v>2.47081262</v>
+        <v>2.943123118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -516,12 +516,12 @@
         </is>
       </c>
       <c r="C10">
-        <v>3.59239238332</v>
+        <v>4.49700792566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -529,12 +529,12 @@
         </is>
       </c>
       <c r="C11">
-        <v>8.33448238043</v>
+        <v>9.549280404119999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -542,12 +542,12 @@
         </is>
       </c>
       <c r="C12">
-        <v>1.084052857</v>
+        <v>1.201461147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -555,12 +555,12 @@
         </is>
       </c>
       <c r="C13">
-        <v>2.943123118</v>
+        <v>3.0435094148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -568,12 +568,12 @@
         </is>
       </c>
       <c r="C14">
-        <v>4.49700792566</v>
+        <v>4.52691703845</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -581,12 +581,12 @@
         </is>
       </c>
       <c r="C15">
-        <v>9.549280404119999</v>
+        <v>10.48084956688</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -594,12 +594,12 @@
         </is>
       </c>
       <c r="C16">
-        <v>1.201461147</v>
+        <v>1.174117129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -607,12 +607,12 @@
         </is>
       </c>
       <c r="C17">
-        <v>3.0435094148</v>
+        <v>2.9447249227</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -620,12 +620,12 @@
         </is>
       </c>
       <c r="C18">
-        <v>4.52691703845</v>
+        <v>4.688178780339999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="C19">
-        <v>10.48084956688</v>
+        <v>11.65548896693</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -646,12 +646,12 @@
         </is>
       </c>
       <c r="C20">
-        <v>1.174117129</v>
+        <v>1.244033815</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -659,12 +659,12 @@
         </is>
       </c>
       <c r="C21">
-        <v>2.9447249227</v>
+        <v>3.90519324</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -672,12 +672,12 @@
         </is>
       </c>
       <c r="C22">
-        <v>4.688178780339999</v>
+        <v>5.27087104912</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -685,12 +685,12 @@
         </is>
       </c>
       <c r="C23">
-        <v>11.65548896693</v>
+        <v>12.49397842965</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -698,12 +698,12 @@
         </is>
       </c>
       <c r="C24">
-        <v>1.244033815</v>
+        <v>1.20799316</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -711,12 +711,12 @@
         </is>
       </c>
       <c r="C25">
-        <v>3.90519324</v>
+        <v>4.122341691</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -724,12 +724,12 @@
         </is>
       </c>
       <c r="C26">
-        <v>5.27087104912</v>
+        <v>6.12644903291</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -737,12 +737,12 @@
         </is>
       </c>
       <c r="C27">
-        <v>12.49397842965</v>
+        <v>12.67284302204</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -750,12 +750,12 @@
         </is>
       </c>
       <c r="C28">
-        <v>1.20799316</v>
+        <v>1.270601629</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -763,12 +763,12 @@
         </is>
       </c>
       <c r="C29">
-        <v>4.122341691</v>
+        <v>3.198273253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -776,12 +776,12 @@
         </is>
       </c>
       <c r="C30">
-        <v>6.12644903291</v>
+        <v>4.6708634149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -789,12 +789,12 @@
         </is>
       </c>
       <c r="C31">
-        <v>12.67284302204</v>
+        <v>12.88569390848</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -802,12 +802,12 @@
         </is>
       </c>
       <c r="C32">
-        <v>1.270601629</v>
+        <v>3.326478961</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -815,12 +815,12 @@
         </is>
       </c>
       <c r="C33">
-        <v>3.198273253</v>
+        <v>4.6078534251</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -828,12 +828,12 @@
         </is>
       </c>
       <c r="C34">
-        <v>4.6708634149</v>
+        <v>5.03043245634</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -841,12 +841,12 @@
         </is>
       </c>
       <c r="C35">
-        <v>12.88569390848</v>
+        <v>16.1381231669</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -854,12 +854,12 @@
         </is>
       </c>
       <c r="C36">
-        <v>3.326478961</v>
+        <v>3.208705854</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -867,12 +867,12 @@
         </is>
       </c>
       <c r="C37">
-        <v>4.6078534251</v>
+        <v>7.369175001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -880,12 +880,12 @@
         </is>
       </c>
       <c r="C38">
-        <v>5.03043245634</v>
+        <v>5.6706592308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -893,12 +893,12 @@
         </is>
       </c>
       <c r="C39">
-        <v>16.1381231669</v>
+        <v>14.82644269334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -906,12 +906,12 @@
         </is>
       </c>
       <c r="C40">
-        <v>3.208705854</v>
+        <v>2.00647602</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>7.369175001</v>
+        <v>6.569816538</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_multipartners_tenyear.xlsx
+++ b/xlsx/nor_oda_multipartners_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bistand til multilaterale partnere, 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata inneholder data om bistand til multilaterale partnere. 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
